--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\personalFolder\Usman\nftmlm - Copy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6903DABE-4605-457B-9F88-92F1DC37A346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE670B2-55C4-4646-97FF-9DC44BBEC6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{70684EE9-6D1E-4A9F-B089-63FA2506ADAA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
   <si>
     <t>NFT buy</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Income to referrer</t>
   </si>
   <si>
-    <t>Referral Income</t>
-  </si>
-  <si>
     <t>Level Income distribution</t>
   </si>
   <si>
@@ -63,13 +60,13 @@
     <t>Income to oldOwner</t>
   </si>
   <si>
-    <t>Self Trading Income</t>
-  </si>
-  <si>
     <t>Trading Referral Bonus</t>
   </si>
   <si>
     <t>Column1</t>
+  </si>
+  <si>
+    <t>Self Trading Profit</t>
   </si>
 </sst>
 </file>
@@ -133,6 +130,20 @@
     <tableColumn id="3" xr3:uid="{6EA0E2AA-A190-49F2-9A59-828BC12E600A}" name="NFT Mint"/>
     <tableColumn id="4" xr3:uid="{27F12BB5-55A9-4227-8B44-C206A253E72C}" name="Package upgrade"/>
     <tableColumn id="5" xr3:uid="{E3E6143D-D376-4CEE-9807-72D3D743789E}" name="Register"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2640919F-385D-4812-8D2B-59C1B9221221}" name="Table22" displayName="Table22" ref="A8:E11" totalsRowShown="0">
+  <autoFilter ref="A8:E11" xr:uid="{2640919F-385D-4812-8D2B-59C1B9221221}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{C943F66C-65E7-4037-AF3C-B6B8D21275E0}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{1A555AE0-D796-48B3-BB65-ADEC4A4423DE}" name="NFT buy"/>
+    <tableColumn id="3" xr3:uid="{6556F247-2735-4AFE-9454-0F58F20497BB}" name="NFT Mint"/>
+    <tableColumn id="4" xr3:uid="{E6328764-8C61-4618-BA9B-70C18AE20211}" name="Package upgrade"/>
+    <tableColumn id="5" xr3:uid="{45A1D338-9E2F-4395-A7DA-A381B0AF6CDC}" name="Register"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -435,23 +446,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA723029-17A9-487D-80BC-A15FAEA7E2F9}">
-  <dimension ref="A2:E5"/>
+  <dimension ref="A2:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -471,56 +482,126 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>